--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -575,7 +575,7 @@
         <v>45497.64619212963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45617.58420138889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44439</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45839.74755787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45736.62466435185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46001.64429398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44846.31958333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45751</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45001</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45896.6121875</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45412.35115740741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45923.64543981481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45169</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45849.49899305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45637.60543981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>46006.37196759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45137</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45134.59957175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45618.34292824074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45751</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45359.61542824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45776.42414351852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44313.68344907407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44881.79954861111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44469.59694444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44356.69309027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44456.62418981481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44474.47417824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44462.63516203704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44843.43189814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44271</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44342.86346064815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44531</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44370.34480324074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44764</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44750</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44441.90895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44523.53108796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44720</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44869</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44607.34648148148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44764</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44811</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44714.43409722222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44722.58847222223</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44456</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44397.3240162037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44397.3242824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44337.5053587963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44510</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44816.70112268518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44474.4628125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44295</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44258</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44273.39503472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44725</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44684.5827662037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44774.48569444445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>44400</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>44874.53378472223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>44497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44363</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44564.36203703703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44425.34505787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44696</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44321.66145833334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44615.37123842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44733</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44725</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44609.53788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44411</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>44580</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>44238</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44497.29916666666</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44840.4956712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44435</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44271</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44533.553125</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44680.39116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44784.50792824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44811</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44792</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44552</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44473.77486111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44491.71606481481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44393.58277777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44652</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44781.46791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44469.3720949074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44571.62260416667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44348.61502314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44273.42744212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44286.61305555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44266.50715277778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44473</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44473.62083333333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44328</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44539.37436342592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44470</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44462.63238425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44327.59719907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44385.4378125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44606</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44462.65415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45342.50168981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44902.43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44585.62112268519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44982.324375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45475.51938657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45775.62319444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45359.51115740741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45568.61741898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45093</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44631</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45106</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44281</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45681.41366898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44937.66662037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44632.75332175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45684.68071759259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45183</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45428.48590277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44715</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45561.6612037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45745.71576388889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44599</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45294</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45742.42097222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44460.71118055555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44607.34837962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44473.558125</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45376.58174768519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45631.27377314815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45637.50040509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45637.52162037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45611.41010416667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45406.50541666667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>45022.38005787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44935</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>45137</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>45189.63023148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44987</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45358.60878472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45798.68462962963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>45332</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>45332.60163194445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>45855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45855</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>45884.67460648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44474.4662962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44950</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45016.64439814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45799.40148148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45631.34453703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45799.41793981481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45231.64945601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45422.32804398148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45803.63070601852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44610.69429398148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45624.58861111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>45624.60966435185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44734</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45587.47545138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45373.33706018519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45091</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45059.70721064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44982</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45343</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45244</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44760.71414351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45751.66748842593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44762.62707175926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45884.44027777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45805.43145833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45805.58092592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>45807.55388888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45888.63064814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45611.4250462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44421.43811342592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45888.57143518519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45889.3877662037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44973</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45811.9821875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44364.62407407408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45891.59162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45890.62850694444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45813.64798611111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44685.63946759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45574</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45895.62972222222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44574</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45030</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>45817.61564814814</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45895.32802083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>45896.55476851852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45397</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45896.61844907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44379</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45261</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45896.57364583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45896.59461805555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44588</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44588.47145833333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45898.48224537037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45898.4855787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45898.53216435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45819.38085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45897.75951388889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45819.63666666667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45751</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45355.651875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44896</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45749.58880787037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45818.39394675926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45901.67724537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45903.65025462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45397.64184027778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45905</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45775.46172453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45905</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45637.58385416667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44580.45658564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45905.5500925926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45908.59571759259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45908.8787037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45750.48502314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45909.5346875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>45471.60870370371</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45825.3437037037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45911.49023148148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45911.50141203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45911.71866898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45911.49900462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>44378</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45237.31819444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45721.70053240741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45742.57935185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45716.70203703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45726.67855324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45910.90111111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45743.48855324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45743.65465277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45737.66302083333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45098</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45098.36331018519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45631.46885416667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45915.38841435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45183</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45826.53834490741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45728.51762731482</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45743.59481481482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45212</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45826</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45737.66050925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45740.47094907407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45743.61261574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45743.61517361111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45826.50349537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45916.55859953703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45191</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44882</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45918.69027777778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>45831.64825231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44363</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45832.403125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45923.66642361111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45923.67934027778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>45833.53537037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45826.35928240741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45925.66380787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45925.38208333333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45925.38766203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45925.39627314815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45833</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45833.54055555556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45638.40734953704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45925</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45925</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45924.38350694445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45924.44726851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>45924.37861111111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45924.46421296296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45525.70528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45834.62601851852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45629.37820601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45281</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45021</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45104</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>45637.47238425926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45838.67418981482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45838.42524305556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45839</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>45839.59840277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45931</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45838.55416666667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45839.66587962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44615.37796296296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45202</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44467.65137731482</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44982.32392361111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>45719.62782407407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45397.6390625</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45841.48537037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>45840.68247685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45303.82884259259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45841.46166666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45841.55440972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45841.37438657408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>45841.37721064815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45160</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45937</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45841.35094907408</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>45937.54668981482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>45490.47797453704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45490.4799537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45490.55439814815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45841.38503472223</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45936.76261574074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45137</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45937.4890625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45121.58388888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45939.49269675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45937.61175925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45770.4296875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45281</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         <v>45188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45845.34789351852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45940.43407407407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45922.36165509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45197.59765046297</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45943.50023148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45845.35418981482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45784</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45922.3640625</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45943.6872337963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44994.45974537037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45845.45954861111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45845.46462962963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45940.43130787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44715</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45343.48173611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45789.45480324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45356.6531712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45356.65916666666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45631.34956018518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45943.84081018518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45847.43148148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45847.44287037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45845.94069444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45642.59199074074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45849.50798611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45807.6665625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45734.70657407407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45855.30979166667</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45855.28851851852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45855.29137731482</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45855.31087962963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45855.31493055556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44531</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45855.31182870371</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45854.65184027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44348.63244212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45322</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45755.48946759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45450.49150462963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>45370.37342592593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44624</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45862.49201388889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45862.55155092593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45953.40328703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45952.59891203704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45540.56581018519</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45867.61944444444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45867.53939814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45953.39973379629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45477.42391203704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45867.61729166667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45595.68054398148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45568.7375925926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45124</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45127.5749074074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45957.60747685185</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44804</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>44901.66434027778</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44928.40848379629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>45684.57792824074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44336</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45272</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>45699.6043287037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45755.45349537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45810.43164351852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44869</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44901.65896990741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>45580.45703703703</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45776.48423611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44998.46474537037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45821.56581018519</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45063.60025462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45873.6764699074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45029</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45029</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45324.63686342593</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45713.39217592592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>44978.88230324074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44944.56824074074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45796.40141203703</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45335</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>45358.46297453704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44904.37513888889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45755.54912037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45796.34909722222</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45872.76523148148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44971.7277662037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44869</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45316.4958449074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45209.54509259259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44694.54123842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45868</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45875.3753125</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>45137</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45075</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45629.4267824074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44432</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45875.54393518518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>45875.58526620371</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45875.60344907407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44648</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45959.35469907407</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45959.36641203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45877.65163194444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44834</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45965.4577662037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45880.66527777778</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44928</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45965.68145833333</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45964.44572916667</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44838</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45106</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45106.36351851852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44713.47829861111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45680.42930555555</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45306</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45755.49395833333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45755.53173611111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45755.53457175926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45968.37740740741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45349</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45285.84443287037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>44935</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45484.64434027778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45224</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45973.33297453704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>45855</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>45884.47306712963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>45194.61690972222</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>45978.50188657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>45134.37270833334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>45798.53462962963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45979.64233796296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>45978.43127314815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45264.46984953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>45264.47670138889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>44714.43248842593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>44950</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>45981.37033564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>45674.65553240741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45980.63429398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>45980.4665625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45980.45340277778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45555.65413194444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45419.59693287037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>45982.41637731482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45982.42884259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>46027.6683449074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>45137</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>45442.34746527778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>44712.40928240741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         <v>45268</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>45986.4943287037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45414.68422453704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45288</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>45392.71190972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>46030.434375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>45490</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44764.50056712963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45750.49517361111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45342.49490740741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>46034.49469907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         <v>46034.50081018519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>45629.76608796296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>46034.48699074074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45432.29416666667</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45419.60194444445</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44768</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45758.57092592592</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>46037.60118055555</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45342</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>45533.69211805556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>46037.59010416667</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>46030</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>46037.4171875</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>46037.42392361111</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>45140</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45201</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>46036.461875</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45761.63997685185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45999.41503472222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45356.65800925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>46038.77434027778</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>46038.39994212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45604.49313657408</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45561.64265046296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>45271</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45996.50127314815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45455</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>46000</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>46001.43695601852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>46001.44486111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>46000</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44803</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45755.4875925926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>45755.55113425926</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>46000</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44393.58640046296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44971</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>46037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45763.46733796296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45260</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>46000</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45378.64171296296</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>46045.33262731481</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45574.41392361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44834</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44806.50550925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>46002.56458333333</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>46007</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45154</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>46006.37658564815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>44253</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35234,7 +35234,7 @@
         <v>46048.48322916667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>44896</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>44371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>46046.50976851852</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>46048.71221064815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>46006.37210648148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45552.38377314815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>46048.37831018519</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>46008.42648148148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45076</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45137</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>46048</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45264.63784722222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>46009.68027777778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>44952.56377314815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45443.60728009259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36151,7 +36151,7 @@
         <v>45526.47351851852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>46055.4960300926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>46013.33465277778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45236.58672453704</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         <v>45154.26027777778</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>46055.49892361111</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>46052</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44660.55568287037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36612,7 +36612,7 @@
         <v>46013.4750462963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36669,7 +36669,7 @@
         <v>45301</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36726,7 +36726,7 @@
         <v>44588.47560185185</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36783,7 +36783,7 @@
         <v>46056.60484953703</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36840,7 +36840,7 @@
         <v>44732</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         <v>46057.30474537037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36954,7 +36954,7 @@
         <v>45021.6837037037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37011,7 +37011,7 @@
         <v>45724.62498842592</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>45275</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>45275</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>45707.43508101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>45714.59451388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45714.41085648148</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45713.68893518519</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>45701.64710648148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>46042.51248842593</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>45839.71287037037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>45238.70208333333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>45693.56583333333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>45710.495</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44978.89082175926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>45709.60895833333</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>45691.32849537037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37928,7 +37928,7 @@
         <v>46056</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>46058.3328125</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>45386.43416666667</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>46058.31325231482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44902.55736111111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45379.43885416666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45616.43416666667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45678.58909722222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45251</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>45251</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>45637.50666666667</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>45135.49209490741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>45251</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>45686.39112268519</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>45119</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44813</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>45518.46695601852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38969,7 +38969,7 @@
         <v>44909.33916666666</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>45324</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45672.6562037037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45672.66568287037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44358.56871527778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>44637</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45230</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45210.44365740741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45218</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45204.60971064815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45233</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>45233</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45107.32079861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45225</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45378.67270833333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>45523.63995370371</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44813</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>45587.65398148148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>45665.35950231482</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>45476.5928587963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44531.43556712963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44340</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>45254.63135416667</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44994.45799768518</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>45373</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>45288</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>45070.30204861111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40570,7 +40570,7 @@
         <v>45545.7605787037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45264.49877314815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40684,7 +40684,7 @@
         <v>44588.48253472222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40741,7 +40741,7 @@
         <v>45370.38751157407</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45352.62096064815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45372.64321759259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>44897</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45202</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>44881</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45156.7150462963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45369.34547453704</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41202,7 +41202,7 @@
         <v>44673.3947800926</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41259,7 +41259,7 @@
         <v>45758.58219907407</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>45629.76388888889</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         <v>45281</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41430,7 +41430,7 @@
         <v>45358.59503472222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>45134.37305555555</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41544,7 +41544,7 @@
         <v>45099.63011574074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>45474.46443287037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>45569.67313657407</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44469</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>45415.53640046297</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45264.67543981481</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45188</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>45093</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>45596.74619212963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>44589</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42119,7 +42119,7 @@
         <v>45030</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>45771.77300925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42233,7 +42233,7 @@
         <v>45379.43107638889</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         <v>45475.34384259259</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>44652</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45274</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45348</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45370</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>44888.51767361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45092.57231481482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
         <v>45359.59423611111</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42746,7 +42746,7 @@
         <v>45763.47604166667</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42803,7 +42803,7 @@
         <v>45763.48221064815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42860,7 +42860,7 @@
         <v>45757.66560185186</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42917,7 +42917,7 @@
         <v>44430</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42974,7 +42974,7 @@
         <v>45763.49094907408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43031,7 +43031,7 @@
         <v>45490</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43088,7 +43088,7 @@
         <v>45758.54459490741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         <v>45758.55542824074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43202,7 +43202,7 @@
         <v>45077.50708333333</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43259,7 +43259,7 @@
         <v>45534.61297453703</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43316,7 +43316,7 @@
         <v>44924.82454861111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>45631.47197916666</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43430,7 +43430,7 @@
         <v>45251</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43487,7 +43487,7 @@
         <v>45119</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43544,7 +43544,7 @@
         <v>45565.58900462963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43601,7 +43601,7 @@
         <v>45332.54150462963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43658,7 +43658,7 @@
         <v>45743.60820601852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43715,7 +43715,7 @@
         <v>45210.70979166667</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         <v>45510.67900462963</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43829,7 +43829,7 @@
         <v>44897</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>45219</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45299</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>44375</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44062,7 +44062,7 @@
         <v>45490</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44119,7 +44119,7 @@
         <v>45147.80034722222</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44176,7 +44176,7 @@
         <v>45261.53189814815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>45474</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>45750.46237268519</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>45611.41813657407</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>45093.56304398148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>45688.59099537037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44936.55232638889</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44603</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45147.78840277778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44908</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>45740.47939814815</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>45764.57859953704</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44720.50216435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44579.571875</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>44973</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45474.46328703704</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44603.69533564815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>45306.68015046296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44596</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44950</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>44790.44344907408</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>45646.57030092592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44238</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45502,7 +45502,7 @@
         <v>44993.25908564815</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45559,7 +45559,7 @@
         <v>45572.44581018519</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45377.64670138889</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>45254.64460648148</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45686.38752314815</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>45713.50826388889</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>45056</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45099</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45534.60949074074</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>45616.57194444445</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45679.64409722222</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>44950</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45763.63100694444</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45776.07998842592</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46305,7 +46305,7 @@
         <v>45776.41950231481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46362,7 +46362,7 @@
         <v>45779.60204861111</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>45699</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46476,7 +46476,7 @@
         <v>45780.44622685185</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46533,7 +46533,7 @@
         <v>45780.4630787037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>45784.40811342592</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46647,7 +46647,7 @@
         <v>44586.55920138889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46704,7 +46704,7 @@
         <v>45443.5905324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46761,7 +46761,7 @@
         <v>45785.57702546296</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46818,7 +46818,7 @@
         <v>45673.72951388889</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45784.34763888889</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46932,7 +46932,7 @@
         <v>45789.45525462963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         <v>45418</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47046,7 +47046,7 @@
         <v>45434.61606481481</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45443.35165509259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45713.78631944444</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45672.65099537037</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47279,7 +47279,7 @@
         <v>45724.6228125</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47336,7 +47336,7 @@
         <v>45721.86008101852</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47393,7 +47393,7 @@
         <v>45791.5030787037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47450,7 +47450,7 @@
         <v>45792.46954861111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47507,7 +47507,7 @@
         <v>45792.54550925926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45792.45846064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45792.46371527778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>44971.65195601852</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -575,7 +575,7 @@
         <v>45497.64619212963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45617.58420138889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44439</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45839.74755787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45736.62466435185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46001.64429398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44846.31958333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45751</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45001</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45896.6121875</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45412.35115740741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45923.64543981481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45169</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45849.49899305555</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45637.60543981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>46006.37196759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45137</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45134.59957175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45618.34292824074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45751</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45359.61542824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45776.42414351852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44313.68344907407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44881.79954861111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44469.59694444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44356.69309027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44456.62418981481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44474.47417824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44462.63516203704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44843.43189814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44271</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44342.86346064815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44531</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44370.34480324074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44764</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44501</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44750</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44441.90895833333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44523.53108796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44368</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>44720</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44869</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44607.34648148148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44764</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44811</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44714.43409722222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44722.58847222223</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44456</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44397.3240162037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44397.3242824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44337.5053587963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44510</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44816.70112268518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44474.4628125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44295</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44258</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44273.39503472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44725</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44684.5827662037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44733</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44774.48569444445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>44400</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>44874.53378472223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>44497</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44363</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44564.36203703703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44425.34505787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44696</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44321.66145833334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44615.37123842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44733</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44725</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44609.53788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44411</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>44580</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>44238</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44497.29916666666</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44840.4956712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44435</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>44271</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44533.553125</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44285</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>44680.39116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44784.50792824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44811</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44792</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44552</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44473.77486111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44491.71606481481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44393.58277777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44652</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44781.46791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44469.3720949074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>44571.62260416667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44348.61502314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44273.42744212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44286.61305555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44266.50715277778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44473</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44473.62083333333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44328</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44725</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44539.37436342592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44470</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44462.63238425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44327.59719907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44385.4378125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44606</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44462.65415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45342.50168981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44902.43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44585.62112268519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44982.324375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45475.51938657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45775.62319444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45359.51115740741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45568.61741898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45093</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44631</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>45106</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44630</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44281</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45681.41366898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44937.66662037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44632.75332175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>45684.68071759259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45183</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45428.48590277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44715</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45561.6612037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45745.71576388889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44599</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45294</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45742.42097222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44460.71118055555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44607.34837962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44473.558125</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45376.58174768519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45631.27377314815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44810</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45637.50040509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45637.52162037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45611.41010416667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45406.50541666667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>45022.38005787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44935</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>45137</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>45189.63023148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44987</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45604.48800925926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45358.60878472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45798.68462962963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45135</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>45332</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>45332.60163194445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>45855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45855</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>45884.67460648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44474.4662962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44950</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45016.64439814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45799.40148148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45631.34453703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45799.41793981481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45231.64945601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45422.32804398148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45803.63070601852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44610.69429398148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45624.58861111111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>45624.60966435185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44734</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45587.47545138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45373.33706018519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45091</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45059.70721064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44982</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45343</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45244</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44760.71414351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45751.66748842593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44762.62707175926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45884.44027777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45805.43145833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45805.58092592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44798</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>45807.55388888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45888.63064814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45611.4250462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44421.43811342592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>45888.57143518519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45889.3877662037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44973</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45811.9821875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44364.62407407408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45891.59162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45890.62850694444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45813.64798611111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44685.63946759259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45574</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45895.62972222222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44574</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45030</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>45817.61564814814</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45895.32802083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>45896.55476851852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45397</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45896.61844907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44379</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45261</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45896.57364583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45896.59461805555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44588</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44588.47145833333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45898.48224537037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45898.4855787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45898.53216435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45819.38085648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45897.75951388889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45819.63666666667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45751</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45355.651875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44896</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45749.58880787037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45818.39394675926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45901.67724537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45903.65025462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45397.64184027778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45905</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45775.46172453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45905</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45637.58385416667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44580.45658564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45905.5500925926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45908.59571759259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45908.8787037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45750.48502314815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45909.5346875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>45471.60870370371</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45825.3437037037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45911.49023148148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45911.50141203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45911.71866898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45911.49900462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>44378</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45237.31819444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45721.70053240741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45742.57935185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45716.70203703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45726.67855324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45910.90111111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45743.48855324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45743.65465277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45737.66302083333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45098</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45098.36331018519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45631.46885416667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45915.38841435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45183</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45826.53834490741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45728.51762731482</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45743.59481481482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45212</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45826</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45737.66050925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45740.47094907407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45743.61261574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45743.61517361111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45826.50349537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45916.55859953703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45191</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44882</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45918.69027777778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>45831.64825231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44363</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45832.403125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45923.66642361111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45923.67934027778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>45833.53537037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45826.35928240741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45925.66380787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45925.38208333333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45925.38766203704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45925.39627314815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45833</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45833.54055555556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45638.40734953704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45925</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45925</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45924.38350694445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45924.44726851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>45924.37861111111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45924.46421296296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>45525.70528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45834.62601851852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45629.37820601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45281</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45021</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45104</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>45637.47238425926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45838.67418981482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45838.42524305556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45839</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>45839.59840277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45931</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45838.55416666667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45839.66587962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44615.37796296296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45202</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44467.65137731482</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44982.32392361111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>45719.62782407407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45397.6390625</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45841.48537037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>45840.68247685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45303.82884259259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45841.46166666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45841.55440972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45841.37438657408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>45841.37721064815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45160</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45937</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45841.35094907408</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>45937.54668981482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>45490.47797453704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45490.4799537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45490.55439814815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45841.38503472223</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45936.76261574074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45137</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45937.4890625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45121.58388888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45939.49269675926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45937.61175925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45770.4296875</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45281</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         <v>45188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45845.34789351852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45940.43407407407</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45922.36165509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45197.59765046297</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45943.50023148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45845.35418981482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45784</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45922.3640625</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45943.6872337963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44994.45974537037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45845.45954861111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45845.46462962963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45940.43130787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44715</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45343.48173611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45789.45480324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45356.6531712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45356.65916666666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45631.34956018518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45943.84081018518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45847.43148148148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45847.44287037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45845.94069444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45642.59199074074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45849.50798611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45807.6665625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45734.70657407407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45855.30979166667</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45855.28851851852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45855.29137731482</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45855.31087962963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45855.31493055556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44531</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45855.31182870371</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45854.65184027778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44348.63244212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45838</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45322</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45755.48946759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45450.49150462963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>45370.37342592593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44624</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45862.49201388889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45862.55155092593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45953.40328703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45952.59891203704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45540.56581018519</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45867.61944444444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45867.53939814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45953.39973379629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45477.42391203704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>45867.61729166667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45595.68054398148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45568.7375925926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45124</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45127.5749074074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45957.60747685185</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>44804</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>44901.66434027778</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44928.40848379629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>45684.57792824074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>44336</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45272</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>45699.6043287037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>45755.45349537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>45810.43164351852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44869</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44901.65896990741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>45580.45703703703</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45776.48423611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44998.46474537037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45821.56581018519</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45063.60025462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45873.6764699074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45029</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45029</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45324.63686342593</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>45713.39217592592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>44978.88230324074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44944.56824074074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45796.40141203703</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45335</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>45358.46297453704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44904.37513888889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45755.54912037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45796.34909722222</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45872.76523148148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44971.7277662037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44869</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45316.4958449074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45209.54509259259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44694.54123842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45868</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45875.3753125</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>45137</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45075</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45629.4267824074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44432</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45875.54393518518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>45875.58526620371</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45875.60344907407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44648</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45959.35469907407</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45959.36641203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45877.65163194444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44834</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45965.4577662037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45880.66527777778</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44928</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45965.68145833333</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45964.44572916667</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44838</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45106</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45106.36351851852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44713.47829861111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45680.42930555555</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45306</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45755.49395833333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45755.53173611111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45755.53457175926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45968.37740740741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45349</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45285.84443287037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>44935</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45484.64434027778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45224</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45973.33297453704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>45855</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>45884.47306712963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>45194.61690972222</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>45978.50188657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>45134.37270833334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>45798.53462962963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45979.64233796296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>45978.43127314815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45264.46984953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>45264.47670138889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>44714.43248842593</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>44950</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>45981.37033564815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>45674.65553240741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45980.63429398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>45980.4665625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45980.45340277778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45555.65413194444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45419.59693287037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>45982.41637731482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45982.42884259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>46027.6683449074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>45137</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>45442.34746527778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>44712.40928240741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         <v>45268</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>45986.4943287037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45414.68422453704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45288</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>45392.71190972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>46030.434375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>45490</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44764.50056712963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45750.49517361111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45342.49490740741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>46034.49469907407</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         <v>46034.50081018519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>45629.76608796296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>46034.48699074074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45432.29416666667</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45419.60194444445</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44768</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45758.57092592592</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>46037.60118055555</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45342</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>45533.69211805556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>46037.59010416667</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>46030</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>46037.4171875</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>46037.42392361111</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>45140</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45201</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>46036.461875</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45761.63997685185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45999.41503472222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45356.65800925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>46038.77434027778</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>46038.39994212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45604.49313657408</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45561.64265046296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>45271</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>45996.50127314815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45455</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>46000</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>46001.43695601852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>46001.44486111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>46000</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44803</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45755.4875925926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>45755.55113425926</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>46000</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44393.58640046296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44971</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>46037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45763.46733796296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45260</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>46000</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>45378.64171296296</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>46045.33262731481</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>45574.41392361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44834</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44806.50550925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>46002.56458333333</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>46007</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35063,7 +35063,7 @@
         <v>45154</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>46006.37658564815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35177,7 +35177,7 @@
         <v>44253</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35234,7 +35234,7 @@
         <v>46048.48322916667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>44896</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>44371</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>46046.50976851852</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>46048.71221064815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>46006.37210648148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45552.38377314815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>46048.37831018519</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>46008.42648148148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45076</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45137</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>46048</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45264.63784722222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>46009.68027777778</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>44952.56377314815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45443.60728009259</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36151,7 +36151,7 @@
         <v>45526.47351851852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>46055.4960300926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>46013.33465277778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45236.58672453704</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         <v>45154.26027777778</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>46055.49892361111</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>46052</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44660.55568287037</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36612,7 +36612,7 @@
         <v>46013.4750462963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36669,7 +36669,7 @@
         <v>45301</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36726,7 +36726,7 @@
         <v>44588.47560185185</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36783,7 +36783,7 @@
         <v>46056.60484953703</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36840,7 +36840,7 @@
         <v>44732</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         <v>46057.30474537037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36954,7 +36954,7 @@
         <v>45021.6837037037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37011,7 +37011,7 @@
         <v>45724.62498842592</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37068,7 +37068,7 @@
         <v>45275</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>45275</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>45707.43508101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>45714.59451388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45714.41085648148</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45713.68893518519</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37410,7 +37410,7 @@
         <v>45701.64710648148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37467,7 +37467,7 @@
         <v>46042.51248842593</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37524,7 +37524,7 @@
         <v>45839.71287037037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>45238.70208333333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>45693.56583333333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>45710.495</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44978.89082175926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>45709.60895833333</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37871,7 +37871,7 @@
         <v>45691.32849537037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37928,7 +37928,7 @@
         <v>46056</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>46058.3328125</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>45386.43416666667</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>46058.31325231482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>44963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44902.55736111111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45379.43885416666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45616.43416666667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45678.58909722222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45251</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>45251</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>45637.50666666667</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>45135.49209490741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>45251</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>45686.39112268519</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>45119</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>44813</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>45518.46695601852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38969,7 +38969,7 @@
         <v>44909.33916666666</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>45324</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45672.6562037037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45672.66568287037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44358.56871527778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>44637</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39311,7 +39311,7 @@
         <v>45230</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>45210.44365740741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39425,7 +39425,7 @@
         <v>45218</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>45204.60971064815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45233</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>45233</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45107.32079861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45225</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45378.67270833333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
         <v>45523.63995370371</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
         <v>44813</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39943,7 +39943,7 @@
         <v>45587.65398148148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40000,7 +40000,7 @@
         <v>45665.35950231482</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40057,7 +40057,7 @@
         <v>45476.5928587963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40114,7 +40114,7 @@
         <v>44236</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40171,7 +40171,7 @@
         <v>44531.43556712963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40228,7 +40228,7 @@
         <v>44340</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40285,7 +40285,7 @@
         <v>45254.63135416667</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44994.45799768518</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>45373</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>45288</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>45070.30204861111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40570,7 +40570,7 @@
         <v>45545.7605787037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45264.49877314815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40684,7 +40684,7 @@
         <v>44588.48253472222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40741,7 +40741,7 @@
         <v>45370.38751157407</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40798,7 +40798,7 @@
         <v>45352.62096064815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40855,7 +40855,7 @@
         <v>45372.64321759259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40917,7 +40917,7 @@
         <v>44897</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45202</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         <v>44881</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41088,7 +41088,7 @@
         <v>45156.7150462963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41145,7 +41145,7 @@
         <v>45369.34547453704</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41202,7 +41202,7 @@
         <v>44673.3947800926</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41259,7 +41259,7 @@
         <v>45758.58219907407</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>45629.76388888889</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         <v>45281</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41430,7 +41430,7 @@
         <v>45358.59503472222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41487,7 +41487,7 @@
         <v>45134.37305555555</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41544,7 +41544,7 @@
         <v>45099.63011574074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>45474.46443287037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41663,7 +41663,7 @@
         <v>45569.67313657407</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44469</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>45415.53640046297</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>45264.67543981481</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41891,7 +41891,7 @@
         <v>45188</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41948,7 +41948,7 @@
         <v>45093</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>45596.74619212963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>44589</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42119,7 +42119,7 @@
         <v>45030</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42176,7 +42176,7 @@
         <v>45771.77300925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42233,7 +42233,7 @@
         <v>45379.43107638889</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         <v>45475.34384259259</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>44652</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45274</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45348</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45370</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>44888.51767361111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45092.57231481482</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
         <v>45359.59423611111</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42746,7 +42746,7 @@
         <v>45763.47604166667</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42803,7 +42803,7 @@
         <v>45763.48221064815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42860,7 +42860,7 @@
         <v>45757.66560185186</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42917,7 +42917,7 @@
         <v>44430</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42974,7 +42974,7 @@
         <v>45763.49094907408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43031,7 +43031,7 @@
         <v>45490</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43088,7 +43088,7 @@
         <v>45758.54459490741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         <v>45758.55542824074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43202,7 +43202,7 @@
         <v>45077.50708333333</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43259,7 +43259,7 @@
         <v>45534.61297453703</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43316,7 +43316,7 @@
         <v>44924.82454861111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>45631.47197916666</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43430,7 +43430,7 @@
         <v>45251</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43487,7 +43487,7 @@
         <v>45119</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43544,7 +43544,7 @@
         <v>45565.58900462963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43601,7 +43601,7 @@
         <v>45332.54150462963</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43658,7 +43658,7 @@
         <v>45743.60820601852</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43715,7 +43715,7 @@
         <v>45210.70979166667</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         <v>45510.67900462963</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43829,7 +43829,7 @@
         <v>44897</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43886,7 +43886,7 @@
         <v>45219</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43943,7 +43943,7 @@
         <v>45299</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44000,7 +44000,7 @@
         <v>44375</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44062,7 +44062,7 @@
         <v>45490</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44119,7 +44119,7 @@
         <v>45147.80034722222</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44176,7 +44176,7 @@
         <v>45261.53189814815</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>45474</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>45750.46237268519</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44347,7 +44347,7 @@
         <v>45611.41813657407</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44404,7 +44404,7 @@
         <v>45093.56304398148</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44461,7 +44461,7 @@
         <v>45688.59099537037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44518,7 +44518,7 @@
         <v>44936.55232638889</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>44603</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45147.78840277778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44689,7 +44689,7 @@
         <v>44908</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>45740.47939814815</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>45764.57859953704</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>44720.50216435185</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44579.571875</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>44973</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45474.46328703704</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>44603.69533564815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45155,7 +45155,7 @@
         <v>45306.68015046296</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45212,7 +45212,7 @@
         <v>44596</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45269,7 +45269,7 @@
         <v>44950</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>44790.44344907408</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>45646.57030092592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45445,7 +45445,7 @@
         <v>44238</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45502,7 +45502,7 @@
         <v>44993.25908564815</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45559,7 +45559,7 @@
         <v>45572.44581018519</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45377.64670138889</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>45254.64460648148</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45686.38752314815</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>45713.50826388889</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>45056</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45099</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45534.60949074074</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>45616.57194444445</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45679.64409722222</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>44950</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45763.63100694444</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45776.07998842592</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46305,7 +46305,7 @@
         <v>45776.41950231481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46362,7 +46362,7 @@
         <v>45779.60204861111</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46419,7 +46419,7 @@
         <v>45699</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46476,7 +46476,7 @@
         <v>45780.44622685185</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46533,7 +46533,7 @@
         <v>45780.4630787037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         <v>45784.40811342592</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46647,7 +46647,7 @@
         <v>44586.55920138889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46704,7 +46704,7 @@
         <v>45443.5905324074</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46761,7 +46761,7 @@
         <v>45785.57702546296</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46818,7 +46818,7 @@
         <v>45673.72951388889</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46875,7 +46875,7 @@
         <v>45784.34763888889</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -46932,7 +46932,7 @@
         <v>45789.45525462963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         <v>45418</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47046,7 +47046,7 @@
         <v>45434.61606481481</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47103,7 +47103,7 @@
         <v>45443.35165509259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47165,7 +47165,7 @@
         <v>45713.78631944444</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47222,7 +47222,7 @@
         <v>45672.65099537037</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47279,7 +47279,7 @@
         <v>45724.6228125</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47336,7 +47336,7 @@
         <v>45721.86008101852</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47393,7 +47393,7 @@
         <v>45791.5030787037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47450,7 +47450,7 @@
         <v>45792.46954861111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47507,7 +47507,7 @@
         <v>45792.54550925926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47564,7 +47564,7 @@
         <v>45792.45846064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47621,7 +47621,7 @@
         <v>45792.46371527778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>44971.65195601852</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
